--- a/T_Thesis/Analysis/EFAloagingHighlighted.xlsx
+++ b/T_Thesis/Analysis/EFAloagingHighlighted.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephenwsong/Documents/GitHub/share/T_Thesis/Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8EEE9BA-9461-8541-8F39-1BF7BC7831BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E59632E3-3F62-7641-9209-A4EFE47B361F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13860" yWindow="-31060" windowWidth="27640" windowHeight="16540" xr2:uid="{C1D99DF1-1B08-4240-ABA3-6C68475FAE95}"/>
+    <workbookView xWindow="-35960" yWindow="-28200" windowWidth="27640" windowHeight="16540" xr2:uid="{C1D99DF1-1B08-4240-ABA3-6C68475FAE95}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -466,7 +466,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -665,7 +665,7 @@
       <c r="C9" s="2">
         <v>0.01</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>-0.48</v>
       </c>
       <c r="E9" s="2">
